--- a/mix_design_test.xlsx
+++ b/mix_design_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="120">
   <si>
     <t>10mm Aggregate</t>
   </si>
@@ -158,6 +158,222 @@
   </si>
   <si>
     <t>Wellcamp dust</t>
+  </si>
+  <si>
+    <t>dict key</t>
+  </si>
+  <si>
+    <t>index val</t>
+  </si>
+  <si>
+    <t>20131115-01</t>
+  </si>
+  <si>
+    <t>20171030-01</t>
+  </si>
+  <si>
+    <t>20171101-01</t>
+  </si>
+  <si>
+    <t>20171101-02</t>
+  </si>
+  <si>
+    <t>20171103-01</t>
+  </si>
+  <si>
+    <t>20171107-01-Heat</t>
+  </si>
+  <si>
+    <t>20171107-02-VP-17-0522</t>
+  </si>
+  <si>
+    <t>20171107-03-WacolPwd</t>
+  </si>
+  <si>
+    <t>20171110-01</t>
+  </si>
+  <si>
+    <t>20171120-01</t>
+  </si>
+  <si>
+    <t>20171122-01</t>
+  </si>
+  <si>
+    <t>20171123-01</t>
+  </si>
+  <si>
+    <t>20171127-01</t>
+  </si>
+  <si>
+    <t>20171206-01</t>
+  </si>
+  <si>
+    <t>20171206-01b</t>
+  </si>
+  <si>
+    <t>20171206-02</t>
+  </si>
+  <si>
+    <t>20171207-01</t>
+  </si>
+  <si>
+    <t>20171207-02</t>
+  </si>
+  <si>
+    <t>20171211-01</t>
+  </si>
+  <si>
+    <t>20171215-01</t>
+  </si>
+  <si>
+    <t>20180123-01 A20BC</t>
+  </si>
+  <si>
+    <t>20180125-01</t>
+  </si>
+  <si>
+    <t>20180131-01 A20BC</t>
+  </si>
+  <si>
+    <t>20180312-01</t>
+  </si>
+  <si>
+    <t>20180314-05</t>
+  </si>
+  <si>
+    <t>20180315-01</t>
+  </si>
+  <si>
+    <t>20180327-01</t>
+  </si>
+  <si>
+    <t>20180404-01</t>
+  </si>
+  <si>
+    <t>20180417-01</t>
+  </si>
+  <si>
+    <t>20180417-02</t>
+  </si>
+  <si>
+    <t>20180417-03</t>
+  </si>
+  <si>
+    <t>20180417-04</t>
+  </si>
+  <si>
+    <t>20180418-01</t>
+  </si>
+  <si>
+    <t>20180419-01</t>
+  </si>
+  <si>
+    <t>20180419-02</t>
+  </si>
+  <si>
+    <t>20180420-01</t>
+  </si>
+  <si>
+    <t>20180424-01</t>
+  </si>
+  <si>
+    <t>20180424-02</t>
+  </si>
+  <si>
+    <t>20180427-01</t>
+  </si>
+  <si>
+    <t>20180427-02</t>
+  </si>
+  <si>
+    <t>20180427-03</t>
+  </si>
+  <si>
+    <t>20180427-04</t>
+  </si>
+  <si>
+    <t>20180427-05</t>
+  </si>
+  <si>
+    <t>20180427-06</t>
+  </si>
+  <si>
+    <t>20180502-01</t>
+  </si>
+  <si>
+    <t>20180502-02</t>
+  </si>
+  <si>
+    <t>20180502-03</t>
+  </si>
+  <si>
+    <t>20180502-04</t>
+  </si>
+  <si>
+    <t>20180502-05</t>
+  </si>
+  <si>
+    <t>20180503-01</t>
+  </si>
+  <si>
+    <t>20180508-01</t>
+  </si>
+  <si>
+    <t>20180508-02</t>
+  </si>
+  <si>
+    <t>20180509-01</t>
+  </si>
+  <si>
+    <t>20180509-02</t>
+  </si>
+  <si>
+    <t>20180509-03</t>
+  </si>
+  <si>
+    <t>20180509-04</t>
+  </si>
+  <si>
+    <t>20180510-01</t>
+  </si>
+  <si>
+    <t>20180510-02</t>
+  </si>
+  <si>
+    <t>20180514-01</t>
+  </si>
+  <si>
+    <t>20180514-02</t>
+  </si>
+  <si>
+    <t>20180516-01</t>
+  </si>
+  <si>
+    <t>20180516-02</t>
+  </si>
+  <si>
+    <t>20180516-03</t>
+  </si>
+  <si>
+    <t>20180516-04</t>
+  </si>
+  <si>
+    <t>20180523-01</t>
+  </si>
+  <si>
+    <t>20180523-02</t>
+  </si>
+  <si>
+    <t>Admin-1500ml</t>
+  </si>
+  <si>
+    <t>Admix-2000</t>
+  </si>
+  <si>
+    <t>Admix-250</t>
+  </si>
+  <si>
+    <t>Fine SFS</t>
   </si>
 </sst>
 </file>
@@ -515,3606 +731,3928 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW69"/>
+  <dimension ref="A1:AX71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:50">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:50">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
         <v>354</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>818</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>15.075</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>15.075</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="N2">
+      <c r="M2">
         <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>141</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>83.75</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>576</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1675</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>251.25</v>
       </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
         <v>174</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>71.229375</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:50">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
         <v>354</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>818</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>22</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>22</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2.2</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>100</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>110</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>550</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>330</v>
       </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
         <v>190</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>103.95</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:50">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
         <v>354</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>818</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>22</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>22</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2.2</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>11</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>100</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>110</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>550</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1100</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>330</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>190</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>103.95</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:50">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
         <v>354</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>818</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>22</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>22</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2.2</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>22</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>100</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>110</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>550</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>330</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>2200</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>190</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>103.95</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:50">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6">
         <v>354</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>818</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>22</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>22</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2.2</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>33.00000000000001</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>100</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>110</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>550</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>330</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>3300</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>190</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>103.95</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:50">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7">
         <v>354</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>818</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
-        <v>24</v>
-      </c>
-      <c r="I7">
-        <v>24</v>
-      </c>
-      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>24</v>
+      </c>
+      <c r="J7">
+        <v>24</v>
+      </c>
+      <c r="M7">
         <v>4.8</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>19.2</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>60</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>120</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>550</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1920</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>360</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>195</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <v>113.4</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:50">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
         <v>354</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>818</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
-        <v>24</v>
-      </c>
-      <c r="I8">
-        <v>24</v>
-      </c>
-      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="M8">
         <v>4.8</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>48</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>60</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>120</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>550</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>360</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>4800</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>195</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>113.4</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:50">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
         <v>354</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>818</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
-        <v>24</v>
-      </c>
-      <c r="I9">
-        <v>24</v>
-      </c>
-      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="M9">
         <v>4.8</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>19.2</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>60</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>120</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>550</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>1920</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>360</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>210</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <v>113.4</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:50">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10">
         <v>354</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>818</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>22</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>22</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2.2</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>44</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>100</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>110</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>550</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>330</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>4400</v>
       </c>
-      <c r="AU10">
+      <c r="AV10">
         <v>190</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <v>103.95</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:50">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11">
         <v>354</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>818</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
-        <v>24</v>
-      </c>
-      <c r="I11">
-        <v>24</v>
-      </c>
-      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+      <c r="J11">
+        <v>24</v>
+      </c>
+      <c r="M11">
         <v>2.4</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>72</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>60</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>120</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>550</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>360</v>
       </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
         <v>96</v>
       </c>
-      <c r="AT11">
+      <c r="AU11">
         <v>7200</v>
       </c>
-      <c r="AU11">
+      <c r="AV11">
         <v>192</v>
       </c>
-      <c r="AV11">
+      <c r="AW11">
         <v>113.4</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:50">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12">
         <v>354</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>818</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
-        <v>24</v>
-      </c>
-      <c r="I12">
-        <v>24</v>
-      </c>
-      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <v>24</v>
+      </c>
+      <c r="M12">
         <v>2.4</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>48</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>60</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>120</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>550</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>360</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>4800</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <v>96</v>
       </c>
-      <c r="AT12">
+      <c r="AU12">
         <v>7200</v>
       </c>
-      <c r="AU12">
+      <c r="AV12">
         <v>201</v>
       </c>
-      <c r="AV12">
+      <c r="AW12">
         <v>113.4</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:50">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13">
         <v>354</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>818</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>22</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>22</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2.2</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>44</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>100</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>110</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>550</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>330</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>4400</v>
       </c>
-      <c r="AU13">
+      <c r="AV13">
         <v>190</v>
       </c>
-      <c r="AV13">
+      <c r="AW13">
         <v>103.95</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+    <row r="14" spans="1:50">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>20.1875</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>20.1875</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2.125</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="P14">
         <v>0</v>
       </c>
       <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>106.25</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>133.3333333333333</v>
       </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
         <v>923</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1314</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>318.75</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>200</v>
       </c>
-      <c r="AV14">
+      <c r="AW14">
         <v>95.3859375</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="O15">
+    <row r="15" spans="1:50">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>17</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>273</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>276.25</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
       <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
         <v>8.23</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1700</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>510</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1098</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>148.75</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <v>115.5</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>212.5</v>
       </c>
-      <c r="AV15">
+      <c r="AW15">
         <v>64.56450000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="O16">
+    <row r="16" spans="1:50">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>17</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>273</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>276.25</v>
       </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
       <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
         <v>8.23</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1700</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>510</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1098</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>148.75</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>115.5</v>
       </c>
-      <c r="AU16">
+      <c r="AV16">
         <v>212.5</v>
       </c>
-      <c r="AV16">
+      <c r="AW16">
         <v>64.56450000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+    <row r="17" spans="1:49">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>25.5</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>25.5</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="O17">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>17</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>273</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>276.25</v>
       </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
         <v>1700</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>510</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1098</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>148.75</v>
       </c>
-      <c r="AU17">
+      <c r="AV17">
         <v>212.5</v>
       </c>
-      <c r="AV17">
+      <c r="AW17">
         <v>79.6875</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+    <row r="18" spans="1:49">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>25.5</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>25.5</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="O18">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>21.25</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>273</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>276.25</v>
       </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>2125</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>510</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1098</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>148.75</v>
       </c>
-      <c r="AU18">
+      <c r="AV18">
         <v>181.25</v>
       </c>
-      <c r="AV18">
+      <c r="AW18">
         <v>79.6875</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+    <row r="19" spans="1:49">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>25.5</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>25.5</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="O19">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>21.25</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>273</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>276.25</v>
       </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
         <v>2125</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>510</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1098</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>148.75</v>
       </c>
-      <c r="AU19">
+      <c r="AV19">
         <v>191.25</v>
       </c>
-      <c r="AV19">
+      <c r="AW19">
         <v>120.4875</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:49">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20">
         <v>354</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>818</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="G20">
-        <v>24</v>
-      </c>
-      <c r="I20">
-        <v>24</v>
-      </c>
-      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>24</v>
+      </c>
+      <c r="J20">
+        <v>24</v>
+      </c>
+      <c r="M20">
         <v>4.8</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>72</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>60</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>120</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>550</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>360</v>
       </c>
-      <c r="AS20">
+      <c r="AT20">
         <v>0.48</v>
       </c>
-      <c r="AT20">
+      <c r="AU20">
         <v>7200</v>
       </c>
-      <c r="AU20">
+      <c r="AV20">
         <v>195</v>
       </c>
-      <c r="AV20">
+      <c r="AW20">
         <v>113.4</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:49">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21">
         <v>354</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>818</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="G21">
-        <v>24</v>
-      </c>
-      <c r="I21">
-        <v>24</v>
-      </c>
-      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>24</v>
+      </c>
+      <c r="J21">
+        <v>24</v>
+      </c>
+      <c r="M21">
         <v>2.4</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>7200</v>
       </c>
-      <c r="O21">
-        <v>24</v>
-      </c>
-      <c r="Q21">
+      <c r="P21">
+        <v>24</v>
+      </c>
+      <c r="R21">
         <v>60</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>120</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>550</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>2400</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>360</v>
       </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
         <v>192</v>
       </c>
-      <c r="AV21">
+      <c r="AW21">
         <v>113.4</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:49">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22">
         <v>310</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>750</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>15.12</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>26.796</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>2.1</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1.68</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>160</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>105</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>560</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>168</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>315</v>
       </c>
-      <c r="AU22">
+      <c r="AV22">
         <v>180</v>
       </c>
-      <c r="AV22">
+      <c r="AW22">
         <v>52.53327845235646</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+    <row r="23" spans="1:49">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>25.5</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="K23">
         <v>0</v>
       </c>
       <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
         <v>8500</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>21.25</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>273</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>276.25</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
         <v>2125</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>510</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>1098</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>148.75</v>
       </c>
-      <c r="AU23">
+      <c r="AV23">
         <v>181.25</v>
       </c>
-      <c r="AV23">
+      <c r="AW23">
         <v>79.6875</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:49">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24">
         <v>310</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>750</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>15.12</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>26.796</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>2.1</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>63</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>160</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>105</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>560</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>315</v>
       </c>
-      <c r="AT24">
+      <c r="AU24">
         <v>6300</v>
       </c>
-      <c r="AU24">
+      <c r="AV24">
         <v>180</v>
       </c>
-      <c r="AV24">
+      <c r="AW24">
         <v>52.53327845235646</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+    <row r="25" spans="1:49">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>38.25</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>19.125</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0.265625</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>106.25</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="S25">
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>276.25</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>273</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>10625</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>510</v>
       </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
         <v>148.75</v>
       </c>
-      <c r="AU25">
+      <c r="AV25">
         <v>180</v>
       </c>
-      <c r="AV25">
+      <c r="AW25">
         <v>181.6875</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+    <row r="26" spans="1:49">
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>38.25</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>19.125</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>0.265625</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>63.75</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="S26">
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <v>276.25</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>273</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>6375</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>510</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1098</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>148.75</v>
       </c>
-      <c r="AU26">
+      <c r="AV26">
         <v>180</v>
       </c>
-      <c r="AV26">
+      <c r="AW26">
         <v>181.6875</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+    <row r="27" spans="1:49">
+      <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>38.25</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>19.125</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
       <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>0.265625</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>63.75</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="S27">
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>276.25</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>273</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>6375</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>510</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1098</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>148.75</v>
       </c>
-      <c r="AU27">
+      <c r="AV27">
         <v>165</v>
       </c>
-      <c r="AV27">
+      <c r="AW27">
         <v>119.2430666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+    <row r="28" spans="1:49">
+      <c r="A28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>38.25</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>19.125</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>0.265625</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>63.75</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="U28">
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <v>276.25</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>273</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>6375</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>510</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>1098</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>148.75</v>
       </c>
-      <c r="AU28">
+      <c r="AV28">
         <v>155</v>
       </c>
-      <c r="AV28">
+      <c r="AW28">
         <v>119.2430666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+    <row r="29" spans="1:49">
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>38.25</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>19.125</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
       <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>0.265625</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>63.75</v>
       </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="U29">
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="V29">
         <v>276.25</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>273</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>6375</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>510</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>1098</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>148.75</v>
       </c>
-      <c r="AU29">
+      <c r="AV29">
         <v>155</v>
       </c>
-      <c r="AV29">
+      <c r="AW29">
         <v>119.2430666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:49">
+      <c r="A30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30">
         <v>354</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>818</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
       <c r="G30">
-        <v>24</v>
-      </c>
-      <c r="I30">
-        <v>24</v>
-      </c>
-      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>24</v>
+      </c>
+      <c r="J30">
+        <v>24</v>
+      </c>
+      <c r="M30">
         <v>4.8</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.3</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>72</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>60</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>120</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>550</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>7200</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>360</v>
       </c>
-      <c r="AS30">
-        <v>0</v>
-      </c>
-      <c r="AU30">
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
         <v>175</v>
       </c>
-      <c r="AV30">
+      <c r="AW30">
         <v>113.4</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:49">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31">
         <v>354</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>818</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
       <c r="G31">
-        <v>24</v>
-      </c>
-      <c r="I31">
-        <v>24</v>
-      </c>
-      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <v>24</v>
+      </c>
+      <c r="M31">
         <v>4.8</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>150</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>72</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>60</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>120</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>550</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>7200</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>360</v>
       </c>
-      <c r="AS31">
-        <v>0</v>
-      </c>
-      <c r="AU31">
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
         <v>175</v>
       </c>
-      <c r="AV31">
+      <c r="AW31">
         <v>113.4</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:49">
+      <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32">
         <v>354</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>818</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
       <c r="G32">
-        <v>24</v>
-      </c>
-      <c r="I32">
-        <v>24</v>
-      </c>
-      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>24</v>
+      </c>
+      <c r="J32">
+        <v>24</v>
+      </c>
+      <c r="M32">
         <v>4.8</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>75</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>72</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>60</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>120</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>550</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>7200</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>360</v>
       </c>
-      <c r="AS32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
         <v>175</v>
       </c>
-      <c r="AV32">
+      <c r="AW32">
         <v>113.4</v>
       </c>
     </row>
-    <row r="33" spans="1:49">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:50">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33">
         <v>354</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>818</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
       <c r="G33">
-        <v>24</v>
-      </c>
-      <c r="I33">
-        <v>24</v>
-      </c>
-      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>24</v>
+      </c>
+      <c r="J33">
+        <v>24</v>
+      </c>
+      <c r="M33">
         <v>4.8</v>
       </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
       <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>72</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>60</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>120</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>550</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>7200</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>360</v>
       </c>
-      <c r="AS33">
-        <v>0</v>
-      </c>
-      <c r="AU33">
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
         <v>175</v>
       </c>
-      <c r="AV33">
+      <c r="AW33">
         <v>113.4</v>
       </c>
     </row>
-    <row r="34" spans="1:49">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:50">
+      <c r="A34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34">
         <v>354</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>818</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
       <c r="G34">
-        <v>24</v>
-      </c>
-      <c r="I34">
-        <v>24</v>
-      </c>
-      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>24</v>
+      </c>
+      <c r="J34">
+        <v>24</v>
+      </c>
+      <c r="M34">
         <v>4.8</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.3</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>72</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>60</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>120</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>550</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>7200</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>360</v>
       </c>
-      <c r="AS34">
-        <v>0</v>
-      </c>
-      <c r="AU34">
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
         <v>205</v>
       </c>
-      <c r="AV34">
+      <c r="AW34">
         <v>113.4</v>
       </c>
     </row>
-    <row r="35" spans="1:49">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:50">
+      <c r="A35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35">
         <v>535</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>650</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
       <c r="G35">
-        <v>24</v>
-      </c>
-      <c r="I35">
-        <v>24</v>
-      </c>
-      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>24</v>
+      </c>
+      <c r="J35">
+        <v>24</v>
+      </c>
+      <c r="M35">
         <v>4.8</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.3</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>72</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>50</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>120</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>465</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>7200</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>360</v>
       </c>
-      <c r="AS35">
-        <v>0</v>
-      </c>
-      <c r="AU35">
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
         <v>200</v>
       </c>
-      <c r="AV35">
+      <c r="AW35">
         <v>113.4</v>
       </c>
     </row>
-    <row r="36" spans="1:49">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:50">
+      <c r="A36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36">
         <v>245</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>460</v>
       </c>
-      <c r="G36">
-        <v>24</v>
-      </c>
-      <c r="I36">
-        <v>24</v>
-      </c>
-      <c r="L36">
+      <c r="H36">
+        <v>24</v>
+      </c>
+      <c r="J36">
+        <v>24</v>
+      </c>
+      <c r="M36">
         <v>4.8</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>0.3</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>72</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>120</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>120</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>315</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>7200</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>360</v>
       </c>
-      <c r="AS36">
-        <v>0</v>
-      </c>
-      <c r="AU36">
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
         <v>215</v>
       </c>
-      <c r="AV36">
+      <c r="AW36">
         <v>113.4</v>
       </c>
-      <c r="AW36">
+      <c r="AX36">
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="1:49">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="C37">
+    <row r="37" spans="1:50">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37">
         <v>325</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>761</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>26.84</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>26.84</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="L37">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>4.88</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>0.305</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>97.60000000000001</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="V37">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="W37">
         <v>33.61777777777777</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>9760</v>
       </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
       <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
         <v>687</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>454.3822222222222</v>
       </c>
-      <c r="AS37">
-        <v>0</v>
-      </c>
-      <c r="AU37">
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
         <v>200</v>
       </c>
-      <c r="AV37">
+      <c r="AW37">
         <v>126.819</v>
       </c>
     </row>
-    <row r="38" spans="1:49">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:50">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38">
         <v>325</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>761</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>26.84</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>26.84</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="L38">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <v>4.88</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.305</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>73.2</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="V38">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="W38">
         <v>33.61777777777777</v>
       </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
       <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
         <v>687</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>7320</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>454.3822222222222</v>
       </c>
-      <c r="AS38">
-        <v>0</v>
-      </c>
-      <c r="AU38">
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
         <v>225</v>
       </c>
-      <c r="AV38">
+      <c r="AW38">
         <v>126.819</v>
       </c>
     </row>
-    <row r="39" spans="1:49">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="C39">
+    <row r="39" spans="1:50">
+      <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39">
         <v>325</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>761</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>26.84</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>26.84</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="L39">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <v>4.88</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>0.305</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>97.60000000000001</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="V39">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="W39">
         <v>33.61777777777777</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>9760</v>
       </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
       <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
         <v>687</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>454.3822222222222</v>
       </c>
-      <c r="AS39">
+      <c r="AT39">
         <v>0.244</v>
       </c>
-      <c r="AU39">
+      <c r="AV39">
         <v>210</v>
       </c>
-      <c r="AV39">
+      <c r="AW39">
         <v>126.819</v>
       </c>
     </row>
-    <row r="40" spans="1:49">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="C40">
+    <row r="40" spans="1:50">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40">
         <v>325</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>761</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>26.84</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>26.84</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="M40">
         <v>4.88</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>0.305</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>36.6</v>
       </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="V40">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="W40">
         <v>33.61777777777777</v>
-      </c>
-      <c r="Y40">
-        <v>3660</v>
       </c>
       <c r="Z40">
         <v>3660</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>3660</v>
       </c>
       <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
         <v>687</v>
       </c>
-      <c r="AJ40">
+      <c r="AK40">
         <v>454.3822222222222</v>
       </c>
-      <c r="AS40">
-        <v>0</v>
-      </c>
-      <c r="AV40">
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
         <v>126.819</v>
       </c>
     </row>
-    <row r="41" spans="1:49">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="C41">
+    <row r="41" spans="1:50">
+      <c r="A41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41">
         <v>325</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>761</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>26.84</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>26.84</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="M41">
         <v>4.88</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>3660</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>0.305</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>73.2</v>
       </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="V41">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="W41">
         <v>33.61777777777777</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>7320</v>
       </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
       <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
         <v>687</v>
       </c>
-      <c r="AJ41">
+      <c r="AK41">
         <v>454.3822222222222</v>
       </c>
-      <c r="AS41">
-        <v>0</v>
-      </c>
-      <c r="AV41">
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
         <v>126.819</v>
       </c>
     </row>
-    <row r="42" spans="1:49">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="C42">
+    <row r="42" spans="1:50">
+      <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42">
         <v>339</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>792</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>24.75</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>24.75</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="L42">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="M42">
         <v>4.500000000000001</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>0.2812500000000001</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>45.00000000000001</v>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="V42">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="W42">
         <v>31.05</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>4500.000000000001</v>
       </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
       <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
         <v>687</v>
       </c>
-      <c r="AJ42">
+      <c r="AK42">
         <v>418.95</v>
       </c>
-      <c r="AU42">
+      <c r="AV42">
         <v>200</v>
       </c>
-      <c r="AV42">
+      <c r="AW42">
         <v>116.94375</v>
       </c>
     </row>
-    <row r="43" spans="1:49">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="C43">
+    <row r="43" spans="1:50">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43">
         <v>361</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>844</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>21.175</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>21.175</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="L43">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="M43">
         <v>3.85</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>0.240625</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>38.5</v>
       </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="V43">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="W43">
         <v>26.565</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>3850</v>
       </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
       <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
         <v>732</v>
       </c>
-      <c r="AJ43">
+      <c r="AK43">
         <v>358.435</v>
       </c>
-      <c r="AU43">
+      <c r="AV43">
         <v>185</v>
       </c>
-      <c r="AV43">
+      <c r="AW43">
         <v>100.051875</v>
       </c>
     </row>
-    <row r="44" spans="1:49">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="C44">
+    <row r="44" spans="1:50">
+      <c r="A44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44">
         <v>325</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>761</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>17.875</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>17.875</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="L44">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="M44">
         <v>3.25</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>0.203125</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>32.5</v>
       </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="V44">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="W44">
         <v>22.38888888888889</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>3250</v>
       </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
       <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
         <v>806</v>
       </c>
-      <c r="AJ44">
+      <c r="AK44">
         <v>302.6111111111111</v>
       </c>
-      <c r="AU44">
+      <c r="AV44">
         <v>160</v>
       </c>
-      <c r="AV44">
+      <c r="AW44">
         <v>84.45937499999999</v>
       </c>
     </row>
-    <row r="45" spans="1:49">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="C45">
+    <row r="45" spans="1:50">
+      <c r="A45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45">
         <v>325</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>761</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>15.125</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>15.125</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="L45">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="M45">
         <v>2.75</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>0.171875</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>27.5</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="V45">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="W45">
         <v>18.94444444444444</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>2750</v>
       </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
       <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
         <v>863</v>
       </c>
-      <c r="AJ45">
+      <c r="AK45">
         <v>256.0555555555555</v>
       </c>
-      <c r="AU45">
+      <c r="AV45">
         <v>170</v>
       </c>
-      <c r="AV45">
+      <c r="AW45">
         <v>71.46562499999999</v>
       </c>
     </row>
-    <row r="46" spans="1:49">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
+    <row r="46" spans="1:50">
+      <c r="A46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46">
         <v>916</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="F46">
+      <c r="E46">
         <v>0</v>
       </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>27.5</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>27.5</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>2.75</v>
       </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
       <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
         <v>22</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>188</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>176</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>660</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>2200</v>
       </c>
-      <c r="AJ46">
+      <c r="AK46">
         <v>374</v>
       </c>
-      <c r="AS46">
-        <v>0</v>
-      </c>
-      <c r="AU46">
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
         <v>210</v>
       </c>
-      <c r="AV46">
+      <c r="AW46">
         <v>129.9375</v>
       </c>
     </row>
-    <row r="47" spans="1:49">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
+    <row r="47" spans="1:50">
+      <c r="A47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47">
         <v>916</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="F47">
+      <c r="E47">
         <v>0</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>27.5</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>27.5</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>2.75</v>
       </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
       <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
         <v>22</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>188</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>176</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>660</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>2200</v>
       </c>
-      <c r="AJ47">
+      <c r="AK47">
         <v>374</v>
       </c>
-      <c r="AS47">
-        <v>0</v>
-      </c>
-      <c r="AU47">
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
         <v>210</v>
       </c>
-      <c r="AV47">
+      <c r="AW47">
         <v>129.9375</v>
       </c>
     </row>
-    <row r="48" spans="1:49">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
+    <row r="48" spans="1:50">
+      <c r="A48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48">
         <v>916</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="F48">
+      <c r="E48">
         <v>0</v>
       </c>
       <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>27.5</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>27.5</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>2.75</v>
       </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
       <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
         <v>82.5</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>188</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>176</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>660</v>
       </c>
-      <c r="AF48">
+      <c r="AG48">
         <v>8250</v>
       </c>
-      <c r="AJ48">
+      <c r="AK48">
         <v>374</v>
       </c>
-      <c r="AS48">
-        <v>0</v>
-      </c>
-      <c r="AU48">
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
         <v>210</v>
       </c>
-      <c r="AV48">
+      <c r="AW48">
         <v>129.9375</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
+    <row r="49" spans="1:49">
+      <c r="A49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49">
         <v>916</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="F49">
+      <c r="E49">
         <v>0</v>
       </c>
       <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>27.5</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>27.5</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>2.75</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>0.34375</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>82.5</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>188</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>176</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>660</v>
       </c>
-      <c r="AF49">
+      <c r="AG49">
         <v>8250</v>
       </c>
-      <c r="AJ49">
+      <c r="AK49">
         <v>374</v>
       </c>
-      <c r="AU49">
+      <c r="AV49">
         <v>210</v>
       </c>
-      <c r="AV49">
+      <c r="AW49">
         <v>129.9375</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
+    <row r="50" spans="1:49">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50">
         <v>916</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="F50">
+      <c r="E50">
         <v>0</v>
       </c>
       <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>27.5</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>27.5</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>2.75</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>0.34375</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>82.5</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>188</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>176</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>8250</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>660</v>
       </c>
-      <c r="AJ50">
+      <c r="AK50">
         <v>374</v>
       </c>
-      <c r="AU50">
+      <c r="AV50">
         <v>210</v>
       </c>
-      <c r="AV50">
+      <c r="AW50">
         <v>129.9375</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="C51">
+    <row r="51" spans="1:49">
+      <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51">
         <v>325</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>761</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>26.84</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>26.84</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="L51">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="M51">
         <v>4.88</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>0.305</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>73.2</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="V51">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="W51">
         <v>33.61777777777777</v>
       </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
       <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
         <v>687</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>2.748</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>7320</v>
       </c>
-      <c r="AJ51">
+      <c r="AK51">
         <v>454.3822222222222</v>
       </c>
-      <c r="AU51">
+      <c r="AV51">
         <v>225</v>
       </c>
-      <c r="AV51">
+      <c r="AW51">
         <v>126.819</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
+    <row r="52" spans="1:49">
+      <c r="A52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52">
         <v>354</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>818</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
       <c r="G52">
-        <v>24</v>
-      </c>
-      <c r="I52">
-        <v>24</v>
-      </c>
-      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>24</v>
+      </c>
+      <c r="J52">
+        <v>24</v>
+      </c>
+      <c r="M52">
         <v>4.8</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>0.3</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>72</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>60</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>120</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>7200</v>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>550</v>
       </c>
-      <c r="AJ52">
+      <c r="AK52">
         <v>360</v>
       </c>
-      <c r="AS52">
-        <v>0</v>
-      </c>
-      <c r="AU52">
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
         <v>210</v>
       </c>
-      <c r="AV52">
+      <c r="AW52">
         <v>113.4</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
+    <row r="53" spans="1:49">
+      <c r="A53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53">
         <v>354</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>818</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
       <c r="G53">
-        <v>24</v>
-      </c>
-      <c r="I53">
-        <v>24</v>
-      </c>
-      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>24</v>
+      </c>
+      <c r="J53">
+        <v>24</v>
+      </c>
+      <c r="M53">
         <v>4.8</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>0.3</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>96</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>60</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>120</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>9600</v>
       </c>
-      <c r="AD53">
+      <c r="AE53">
         <v>550</v>
       </c>
-      <c r="AJ53">
+      <c r="AK53">
         <v>360</v>
       </c>
-      <c r="AS53">
-        <v>0</v>
-      </c>
-      <c r="AU53">
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
         <v>200</v>
       </c>
-      <c r="AV53">
+      <c r="AW53">
         <v>113.4</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
+    <row r="54" spans="1:49">
+      <c r="A54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54">
         <v>354</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>818</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
       <c r="G54">
-        <v>24</v>
-      </c>
-      <c r="I54">
-        <v>24</v>
-      </c>
-      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>24</v>
+      </c>
+      <c r="J54">
+        <v>24</v>
+      </c>
+      <c r="M54">
         <v>4.8</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>0.3</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>72</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>60</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>120</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>7200</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>550</v>
       </c>
-      <c r="AJ54">
+      <c r="AK54">
         <v>360</v>
       </c>
-      <c r="AS54">
-        <v>0</v>
-      </c>
-      <c r="AU54">
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
         <v>210</v>
       </c>
-      <c r="AV54">
+      <c r="AW54">
         <v>113.4</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
+    <row r="55" spans="1:49">
+      <c r="A55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55">
         <v>354</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>818</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
       <c r="G55">
-        <v>24</v>
-      </c>
-      <c r="I55">
-        <v>24</v>
-      </c>
-      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>24</v>
+      </c>
+      <c r="J55">
+        <v>24</v>
+      </c>
+      <c r="M55">
         <v>4.8</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>0.3</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>96</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>60</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>120</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>9600</v>
       </c>
-      <c r="AD55">
+      <c r="AE55">
         <v>550</v>
       </c>
-      <c r="AJ55">
+      <c r="AK55">
         <v>360</v>
       </c>
-      <c r="AS55">
-        <v>0</v>
-      </c>
-      <c r="AU55">
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
         <v>210</v>
       </c>
-      <c r="AV55">
+      <c r="AW55">
         <v>113.4</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
+    <row r="56" spans="1:49">
+      <c r="A56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56">
         <v>354</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>818</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
       <c r="G56">
-        <v>24</v>
-      </c>
-      <c r="I56">
-        <v>24</v>
-      </c>
-      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>24</v>
+      </c>
+      <c r="J56">
+        <v>24</v>
+      </c>
+      <c r="M56">
         <v>4.8</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>0.3</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>72</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>60</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>120</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>7200</v>
       </c>
-      <c r="AD56">
+      <c r="AE56">
         <v>550</v>
       </c>
-      <c r="AJ56">
+      <c r="AK56">
         <v>360</v>
       </c>
-      <c r="AS56">
-        <v>0</v>
-      </c>
-      <c r="AU56">
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
         <v>210</v>
       </c>
-      <c r="AV56">
+      <c r="AW56">
         <v>113.4</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
+    <row r="57" spans="1:49">
+      <c r="A57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57">
         <v>354</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>818</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
       <c r="G57">
-        <v>24</v>
-      </c>
-      <c r="I57">
-        <v>24</v>
-      </c>
-      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>24</v>
+      </c>
+      <c r="J57">
+        <v>24</v>
+      </c>
+      <c r="M57">
         <v>4.8</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>0.3</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>72</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>60</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>120</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>7200</v>
       </c>
-      <c r="AC57">
+      <c r="AD57">
         <v>2.44</v>
       </c>
-      <c r="AD57">
+      <c r="AE57">
         <v>550</v>
       </c>
-      <c r="AJ57">
+      <c r="AK57">
         <v>360</v>
       </c>
-      <c r="AU57">
+      <c r="AV57">
         <v>205</v>
       </c>
-      <c r="AV57">
+      <c r="AW57">
         <v>113.4</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
+    <row r="58" spans="1:49">
+      <c r="A58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58">
         <v>354</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>818</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
       <c r="G58">
-        <v>24</v>
-      </c>
-      <c r="I58">
-        <v>24</v>
-      </c>
-      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>24</v>
+      </c>
+      <c r="J58">
+        <v>24</v>
+      </c>
+      <c r="M58">
         <v>4.8</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>0.3</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>96</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>60</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>120</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>9600</v>
       </c>
-      <c r="AC58">
+      <c r="AD58">
         <v>2.44</v>
       </c>
-      <c r="AD58">
+      <c r="AE58">
         <v>550</v>
       </c>
-      <c r="AJ58">
+      <c r="AK58">
         <v>360</v>
       </c>
-      <c r="AU58">
+      <c r="AV58">
         <v>210</v>
       </c>
-      <c r="AV58">
+      <c r="AW58">
         <v>113.4</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
+    <row r="59" spans="1:49">
+      <c r="A59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59">
         <v>354</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>818</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
       <c r="G59">
-        <v>24</v>
-      </c>
-      <c r="I59">
-        <v>24</v>
-      </c>
-      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>24</v>
+      </c>
+      <c r="J59">
+        <v>24</v>
+      </c>
+      <c r="M59">
         <v>4.8</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>0.3</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>120</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>60</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>120</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>12000</v>
       </c>
-      <c r="AC59">
+      <c r="AD59">
         <v>2.44</v>
       </c>
-      <c r="AD59">
+      <c r="AE59">
         <v>550</v>
       </c>
-      <c r="AJ59">
+      <c r="AK59">
         <v>360</v>
       </c>
-      <c r="AU59">
+      <c r="AV59">
         <v>205</v>
       </c>
-      <c r="AV59">
+      <c r="AW59">
         <v>113.4</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
+    <row r="60" spans="1:49">
+      <c r="A60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60">
         <v>354</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>818</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
       <c r="G60">
-        <v>24</v>
-      </c>
-      <c r="I60">
-        <v>24</v>
-      </c>
-      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>24</v>
+      </c>
+      <c r="J60">
+        <v>24</v>
+      </c>
+      <c r="M60">
         <v>4.8</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>0.3</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>96</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>60</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>120</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>9600</v>
       </c>
-      <c r="AC60">
+      <c r="AD60">
         <v>2.44</v>
       </c>
-      <c r="AD60">
+      <c r="AE60">
         <v>550</v>
       </c>
-      <c r="AJ60">
+      <c r="AK60">
         <v>360</v>
       </c>
-      <c r="AU60">
+      <c r="AV60">
         <v>210</v>
       </c>
-      <c r="AV60">
+      <c r="AW60">
         <v>113.4</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
+    <row r="61" spans="1:49">
+      <c r="A61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61">
         <v>354</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>818</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
       <c r="G61">
-        <v>24</v>
-      </c>
-      <c r="I61">
-        <v>24</v>
-      </c>
-      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>24</v>
+      </c>
+      <c r="J61">
+        <v>24</v>
+      </c>
+      <c r="M61">
         <v>4.8</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>0.3</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>120</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>60</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>120</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>12000</v>
       </c>
-      <c r="AC61">
+      <c r="AD61">
         <v>2.44</v>
       </c>
-      <c r="AD61">
+      <c r="AE61">
         <v>550</v>
       </c>
-      <c r="AJ61">
+      <c r="AK61">
         <v>360</v>
       </c>
-      <c r="AU61">
+      <c r="AV61">
         <v>210</v>
       </c>
-      <c r="AV61">
+      <c r="AW61">
         <v>113.4</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
-      <c r="A62" s="1">
+    <row r="62" spans="1:49">
+      <c r="A62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>38.25</v>
+      </c>
+      <c r="J62">
+        <v>19.125</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0.265625</v>
+      </c>
+      <c r="P62">
+        <v>63.75</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>276.25</v>
+      </c>
+      <c r="AE62">
+        <v>273</v>
+      </c>
+      <c r="AG62">
+        <v>6375</v>
+      </c>
+      <c r="AI62">
+        <v>510</v>
+      </c>
+      <c r="AJ62">
+        <v>1098</v>
+      </c>
+      <c r="AN62">
+        <v>148.75</v>
+      </c>
+      <c r="AV62">
+        <v>155</v>
+      </c>
+      <c r="AW62">
+        <v>119.2430666666667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:49">
+      <c r="A63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>38.25</v>
+      </c>
+      <c r="J63">
+        <v>19.125</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>63.75</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>276.25</v>
+      </c>
+      <c r="AE63">
+        <v>273</v>
+      </c>
+      <c r="AG63">
+        <v>6375</v>
+      </c>
+      <c r="AI63">
+        <v>510</v>
+      </c>
+      <c r="AJ63">
+        <v>1098</v>
+      </c>
+      <c r="AN63">
+        <v>148.75</v>
+      </c>
+      <c r="AV63">
+        <v>155</v>
+      </c>
+      <c r="AW63">
+        <v>119.2430666666667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:49">
+      <c r="A64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>38.25</v>
+      </c>
+      <c r="J64">
+        <v>19.125</v>
+      </c>
+      <c r="L64">
+        <v>2.125</v>
+      </c>
+      <c r="O64">
+        <v>0.265625</v>
+      </c>
+      <c r="P64">
+        <v>63.75</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>276.25</v>
+      </c>
+      <c r="AE64">
+        <v>273</v>
+      </c>
+      <c r="AG64">
+        <v>6375</v>
+      </c>
+      <c r="AI64">
+        <v>510</v>
+      </c>
+      <c r="AJ64">
+        <v>1098</v>
+      </c>
+      <c r="AN64">
+        <v>148.75</v>
+      </c>
+      <c r="AV64">
+        <v>155</v>
+      </c>
+      <c r="AW64">
+        <v>119.2430666666667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49">
+      <c r="A65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>38.25</v>
+      </c>
+      <c r="J65">
+        <v>19.125</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0.265625</v>
+      </c>
+      <c r="P65">
+        <v>63.75</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>212.5</v>
+      </c>
+      <c r="AE65">
+        <v>273</v>
+      </c>
+      <c r="AG65">
+        <v>6375</v>
+      </c>
+      <c r="AI65">
+        <v>510</v>
+      </c>
+      <c r="AJ65">
+        <v>1098</v>
+      </c>
+      <c r="AO65">
+        <v>212.5</v>
+      </c>
+      <c r="AV65">
+        <v>155</v>
+      </c>
+      <c r="AW65">
+        <v>119.2430666666667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49">
+      <c r="A66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66">
+        <v>354</v>
+      </c>
+      <c r="E66">
+        <v>818</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>26.4</v>
+      </c>
+      <c r="J66">
+        <v>26.4</v>
+      </c>
+      <c r="M66">
+        <v>4.8</v>
+      </c>
+      <c r="O66">
+        <v>0.3</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="R66">
         <v>60</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>38.25</v>
-      </c>
-      <c r="I62">
-        <v>19.125</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0.265625</v>
-      </c>
-      <c r="O62">
-        <v>63.75</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>276.25</v>
-      </c>
-      <c r="AD62">
-        <v>273</v>
-      </c>
-      <c r="AF62">
-        <v>6375</v>
-      </c>
-      <c r="AH62">
-        <v>510</v>
-      </c>
-      <c r="AI62">
-        <v>1098</v>
-      </c>
-      <c r="AM62">
-        <v>148.75</v>
-      </c>
-      <c r="AU62">
-        <v>155</v>
-      </c>
-      <c r="AV62">
-        <v>119.2430666666667</v>
-      </c>
-    </row>
-    <row r="63" spans="1:48">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>38.25</v>
-      </c>
-      <c r="I63">
-        <v>19.125</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>63.75</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>276.25</v>
-      </c>
-      <c r="AD63">
-        <v>273</v>
-      </c>
-      <c r="AF63">
-        <v>6375</v>
-      </c>
-      <c r="AH63">
-        <v>510</v>
-      </c>
-      <c r="AI63">
-        <v>1098</v>
-      </c>
-      <c r="AM63">
-        <v>148.75</v>
-      </c>
-      <c r="AU63">
-        <v>155</v>
-      </c>
-      <c r="AV63">
-        <v>119.2430666666667</v>
-      </c>
-    </row>
-    <row r="64" spans="1:48">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>38.25</v>
-      </c>
-      <c r="I64">
-        <v>19.125</v>
-      </c>
-      <c r="K64">
-        <v>2.125</v>
-      </c>
-      <c r="N64">
-        <v>0.265625</v>
-      </c>
-      <c r="O64">
-        <v>63.75</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>276.25</v>
-      </c>
-      <c r="AD64">
-        <v>273</v>
-      </c>
-      <c r="AF64">
-        <v>6375</v>
-      </c>
-      <c r="AH64">
-        <v>510</v>
-      </c>
-      <c r="AI64">
-        <v>1098</v>
-      </c>
-      <c r="AM64">
-        <v>148.75</v>
-      </c>
-      <c r="AU64">
-        <v>155</v>
-      </c>
-      <c r="AV64">
-        <v>119.2430666666667</v>
-      </c>
-    </row>
-    <row r="65" spans="1:48">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>38.25</v>
-      </c>
-      <c r="I65">
-        <v>19.125</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0.265625</v>
-      </c>
-      <c r="O65">
-        <v>63.75</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>212.5</v>
-      </c>
-      <c r="AD65">
-        <v>273</v>
-      </c>
-      <c r="AF65">
-        <v>6375</v>
-      </c>
-      <c r="AH65">
-        <v>510</v>
-      </c>
-      <c r="AI65">
-        <v>1098</v>
-      </c>
-      <c r="AN65">
-        <v>212.5</v>
-      </c>
-      <c r="AU65">
-        <v>155</v>
-      </c>
-      <c r="AV65">
-        <v>119.2430666666667</v>
-      </c>
-    </row>
-    <row r="66" spans="1:48">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
+      <c r="W66">
+        <v>120</v>
+      </c>
+      <c r="Y66">
+        <v>7200</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>550</v>
+      </c>
+      <c r="AK66">
+        <v>360</v>
+      </c>
+      <c r="AV66">
+        <v>210</v>
+      </c>
+      <c r="AW66">
+        <v>124.74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49">
+      <c r="A67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67">
         <v>354</v>
       </c>
-      <c r="D66">
+      <c r="E67">
         <v>818</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>26.4</v>
+      </c>
+      <c r="J67">
+        <v>26.4</v>
+      </c>
+      <c r="M67">
+        <v>4.8</v>
+      </c>
+      <c r="O67">
+        <v>0.3</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>60</v>
+      </c>
+      <c r="W67">
+        <v>120</v>
+      </c>
+      <c r="Y67">
+        <v>7200</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>550</v>
+      </c>
+      <c r="AK67">
+        <v>360</v>
+      </c>
+      <c r="AV67">
+        <v>210</v>
+      </c>
+      <c r="AW67">
+        <v>124.74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49">
+      <c r="A68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68">
+        <v>354</v>
+      </c>
+      <c r="E68">
+        <v>818</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
         <v>22</v>
       </c>
-      <c r="I66">
+      <c r="J68">
         <v>22</v>
       </c>
-      <c r="L66">
+      <c r="M68">
         <v>2.2</v>
       </c>
-      <c r="O66">
+      <c r="P68">
         <v>66.00000000000001</v>
       </c>
-      <c r="Q66">
+      <c r="R68">
         <v>100</v>
       </c>
-      <c r="V66">
+      <c r="W68">
         <v>110</v>
       </c>
-      <c r="AD66">
+      <c r="AE68">
         <v>550</v>
       </c>
-      <c r="AJ66">
+      <c r="AK68">
         <v>330</v>
       </c>
-      <c r="AQ66">
+      <c r="AR68">
         <v>6600.000000000001</v>
       </c>
-      <c r="AU66">
+      <c r="AV68">
         <v>190</v>
       </c>
-      <c r="AV66">
+      <c r="AW68">
         <v>103.95</v>
       </c>
     </row>
-    <row r="67" spans="1:48">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
+    <row r="69" spans="1:49">
+      <c r="A69" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69">
         <v>354</v>
       </c>
-      <c r="D67">
+      <c r="E69">
         <v>818</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
         <v>22</v>
       </c>
-      <c r="I67">
+      <c r="J69">
         <v>22</v>
       </c>
-      <c r="L67">
+      <c r="M69">
         <v>2.2</v>
       </c>
-      <c r="O67">
+      <c r="P69">
         <v>88</v>
       </c>
-      <c r="Q67">
+      <c r="R69">
         <v>100</v>
       </c>
-      <c r="V67">
+      <c r="W69">
         <v>110</v>
       </c>
-      <c r="AD67">
+      <c r="AE69">
         <v>550</v>
       </c>
-      <c r="AJ67">
+      <c r="AK69">
         <v>330</v>
       </c>
-      <c r="AQ67">
+      <c r="AR69">
         <v>8800</v>
       </c>
-      <c r="AU67">
+      <c r="AV69">
         <v>190</v>
       </c>
-      <c r="AV67">
+      <c r="AW69">
         <v>103.95</v>
       </c>
     </row>
-    <row r="68" spans="1:48">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
+    <row r="70" spans="1:49">
+      <c r="A70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70">
         <v>354</v>
       </c>
-      <c r="D68">
+      <c r="E70">
         <v>818</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
         <v>22</v>
       </c>
-      <c r="I68">
+      <c r="J70">
         <v>22</v>
       </c>
-      <c r="L68">
+      <c r="M70">
         <v>2.2</v>
       </c>
-      <c r="O68">
+      <c r="P70">
         <v>11</v>
       </c>
-      <c r="Q68">
+      <c r="R70">
         <v>100</v>
       </c>
-      <c r="V68">
+      <c r="W70">
         <v>110</v>
       </c>
-      <c r="AD68">
+      <c r="AE70">
         <v>550</v>
       </c>
-      <c r="AJ68">
+      <c r="AK70">
         <v>330</v>
       </c>
-      <c r="AQ68">
+      <c r="AR70">
         <v>1100</v>
       </c>
-      <c r="AU68">
+      <c r="AV70">
         <v>190</v>
       </c>
-      <c r="AV68">
+      <c r="AW70">
         <v>103.95</v>
       </c>
     </row>
-    <row r="69" spans="1:48">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
+    <row r="71" spans="1:49">
+      <c r="A71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>22.8</v>
       </c>
-      <c r="I69">
+      <c r="J71">
         <v>11.4</v>
       </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="O69">
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="P71">
         <v>15.2</v>
       </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="S69">
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="T71">
         <v>247</v>
       </c>
-      <c r="AD69">
+      <c r="AE71">
         <v>404</v>
       </c>
-      <c r="AF69">
+      <c r="AG71">
         <v>1520</v>
       </c>
-      <c r="AH69">
+      <c r="AI71">
         <v>1088</v>
       </c>
-      <c r="AI69">
+      <c r="AJ71">
         <v>443</v>
       </c>
-      <c r="AK69">
+      <c r="AL71">
         <v>133</v>
       </c>
-      <c r="AU69">
+      <c r="AV71">
         <v>190</v>
       </c>
-      <c r="AV69">
+      <c r="AW71">
         <v>108.3</v>
       </c>
     </row>
